--- a/src/main/java/resources/RMSTestData.xlsx
+++ b/src/main/java/resources/RMSTestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nagababu.parepalli\eclipse-workspace\RmsCustomerPortal\src\main\java\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17EF5E14-66C2-467B-8D50-36E680F9E7A7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF3A1AB8-F883-4FF1-94FC-DED671454897}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{1F45140C-9D0A-43A7-8AA8-1FFD7BE961DD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1F45140C-9D0A-43A7-8AA8-1FFD7BE961DD}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="2" r:id="rId1"/>
@@ -100,9 +100,6 @@
     <t>NeedBydate</t>
   </si>
   <si>
-    <t>10/30/2021</t>
-  </si>
-  <si>
     <t>recNeedFor</t>
   </si>
   <si>
@@ -179,6 +176,9 @@
   </si>
   <si>
     <t>979879889</t>
+  </si>
+  <si>
+    <t>11/15/2021</t>
   </si>
 </sst>
 </file>
@@ -539,8 +539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F555C0A-F2CE-40F9-888B-4387D33B0797}">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -579,16 +579,16 @@
         <v>20</v>
       </c>
       <c r="I1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -614,19 +614,19 @@
         <v>19</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" t="s">
         <v>25</v>
       </c>
-      <c r="K2" t="s">
-        <v>26</v>
-      </c>
       <c r="L2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -652,19 +652,19 @@
         <v>13</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" t="s">
         <v>27</v>
       </c>
-      <c r="J3" t="s">
-        <v>28</v>
-      </c>
       <c r="K3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -690,19 +690,19 @@
         <v>18</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -715,8 +715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A2A6559-6C39-4A88-B242-BC784C7EBF81}">
   <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -766,34 +766,34 @@
         <v>20</v>
       </c>
       <c r="I1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" t="s">
         <v>35</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>36</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>37</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>38</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>39</v>
-      </c>
-      <c r="R1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
@@ -819,37 +819,37 @@
         <v>19</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" t="s">
         <v>25</v>
       </c>
-      <c r="K2" t="s">
-        <v>26</v>
-      </c>
       <c r="L2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N2" t="s">
         <v>42</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>43</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="P2" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="R2" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S2" s="1"/>
     </row>
@@ -876,37 +876,37 @@
         <v>13</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" t="s">
         <v>27</v>
       </c>
-      <c r="J3" t="s">
-        <v>28</v>
-      </c>
       <c r="K3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3" t="s">
         <v>42</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>43</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="P3" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="Q3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
@@ -932,45 +932,45 @@
         <v>18</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N4" t="s">
         <v>42</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>43</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="P4" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="Q4" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -988,37 +988,37 @@
         <v>18</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N5" t="s">
         <v>42</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>43</v>
       </c>
-      <c r="O5" t="s">
-        <v>44</v>
-      </c>
       <c r="P5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q5" t="s">
+        <v>38</v>
+      </c>
+      <c r="R5" t="s">
         <v>39</v>
-      </c>
-      <c r="R5" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
